--- a/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000241</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合C</t>
+          <t>宝盈核心优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>78.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.57</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合A</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>78.41</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>82.66</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>000241</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>宝盈核心优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>79.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.27</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000241</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合C</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.08</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>000241</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合</t>
+          <t>宝盈核心优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8455</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.31</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.53</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1536,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688020-方邦股份.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,243 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5526</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3390</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -701,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -752,112 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合A</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.08</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7990</t>
+          <t>0.2044</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7041</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -922,36 +716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010383</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈基础产业混合A</t>
+          <t>宝盈核心优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.85</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>75.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2860</t>
+          <t>0.8782</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -960,36 +754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合A</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1040</t>
+          <t>0.5408</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -998,36 +792,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>010383</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合</t>
+          <t>宝盈基础产业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8455</t>
+          <t>0.5058</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1046,26 +840,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0520</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1084,26 +878,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>75.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1168,36 +962,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>010383</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合A</t>
+          <t>宝盈基础产业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.74</t>
+          <t>14.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.72</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8782</t>
+          <t>1.2860</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1206,36 +1000,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合</t>
+          <t>宝盈核心优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>78.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5408</t>
+          <t>1.1040</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1244,36 +1038,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010383</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈基础产业混合A</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5058</t>
+          <t>0.8455</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1292,26 +1086,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0520</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1330,26 +1124,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.72</t>
+          <t>78.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,7 +1178,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1414,36 +1208,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001075</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2044</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1457,112 +1327,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.98</v>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.31</v>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.53</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.02</v>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>